--- a/data/lda_model.xlsx
+++ b/data/lda_model.xlsx
@@ -459,11 +459,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kuat</t>
+          <t>pln_id</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01849739998579025</v>
+        <v>0.06720442324876785</v>
       </c>
     </row>
     <row r="3">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>batu</t>
+          <t>bangkit_listrik</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0160590186715126</v>
+        <v>0.03867369145154953</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sumber_daya</t>
+          <t>pln</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.01592251099646091</v>
+        <v>0.03497613593935966</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>simak</t>
+          <t>capai_target</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.01473227329552174</v>
+        <v>0.03001130744814873</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rp_triliun</t>
+          <t>panas_bumi</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.01410271227359772</v>
+        <v>0.02335862815380096</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>menteri_esdm</t>
+          <t>ekspor</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.03731599822640419</v>
+        <v>0.03330247104167938</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>panas_bumi</t>
+          <t>larang_ekspor</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.02678683772683144</v>
+        <v>0.03042511083185673</v>
       </c>
     </row>
     <row r="9">
@@ -571,11 +571,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>erick_thohir</t>
+          <t>pasok_listrik</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.01797710172832012</v>
+        <v>0.02975761517882347</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>menteri</t>
+          <t>simak_bawah</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01542335003614426</v>
+        <v>0.02720128931105137</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>esdm</t>
+          <t>simak</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01266002655029297</v>
+        <v>0.02297556959092617</v>
       </c>
     </row>
     <row r="12">
@@ -619,11 +619,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>operasi</t>
+          <t>target_baur</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.08460617065429688</v>
+        <v>0.01695883460342884</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>negara_maju</t>
+          <t>kapasitas</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.03527627140283585</v>
+        <v>0.01474569272249937</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>rencana</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.03473461419343948</v>
+        <v>0.01076308824121952</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>dana</t>
+          <t>renewable_energy</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.02944251894950867</v>
+        <v>0.01074031926691532</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tolak</t>
+          <t>sumber_daya</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.02061203122138977</v>
+        <v>0.01025021076202393</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ruu</t>
+          <t>bumn</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0250470507889986</v>
+        <v>0.0244758203625679</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tenaga_surya</t>
+          <t>erick_thohir</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.01723994687199593</v>
+        <v>0.02296965010464191</v>
       </c>
     </row>
     <row r="19">
@@ -731,11 +731,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ekspor</t>
+          <t>ruu</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.01687279529869556</v>
+        <v>0.02008120343089104</v>
       </c>
     </row>
     <row r="20">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tambah</t>
+          <t>komitmen</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.01504812948405743</v>
+        <v>0.01679520308971405</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sobat</t>
+          <t>kurang_emisi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.01195326261222363</v>
+        <v>0.0154570434242487</v>
       </c>
     </row>
     <row r="22">
@@ -779,11 +779,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ramah_lingkung</t>
+          <t>menteri_esdm</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.02351486869156361</v>
+        <v>0.04361473023891449</v>
       </c>
     </row>
     <row r="23">
@@ -795,11 +795,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kejar_target</t>
+          <t>esdm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.01560100819915533</v>
+        <v>0.01527505088597536</v>
       </c>
     </row>
     <row r="24">
@@ -811,11 +811,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>plta</t>
+          <t>menteri</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0124454228207469</v>
+        <v>0.01485659647732973</v>
       </c>
     </row>
     <row r="25">
@@ -827,11 +827,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>plts_atap</t>
+          <t>pltu</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01078153681010008</v>
+        <v>0.01356910262256861</v>
       </c>
     </row>
     <row r="26">
@@ -843,11 +843,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lingkung</t>
+          <t>tenaga_surya</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.009961395524442196</v>
+        <v>0.01296452898532152</v>
       </c>
     </row>
     <row r="27">
@@ -859,11 +859,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>transisi</t>
+          <t>ramah_lingkung</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.04876850545406342</v>
+        <v>0.02493078261613846</v>
       </c>
     </row>
     <row r="28">
@@ -875,11 +875,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>net_zero</t>
+          <t>baur</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.02157423831522465</v>
+        <v>0.01721481420099735</v>
       </c>
     </row>
     <row r="29">
@@ -891,11 +891,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>komitmen</t>
+          <t>kejar_target</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01820948906242847</v>
+        <v>0.01654466427862644</v>
       </c>
     </row>
     <row r="30">
@@ -907,11 +907,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hijau</t>
+          <t>plta_poso</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.01511438004672527</v>
+        <v>0.01482758205384016</v>
       </c>
     </row>
     <row r="31">
@@ -923,11 +923,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>indonesia</t>
+          <t>plta</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.01290769688785076</v>
+        <v>0.01320813223719597</v>
       </c>
     </row>
     <row r="32">
@@ -939,11 +939,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>bumn</t>
+          <t>tinggi_indonesia</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.02263293042778969</v>
+        <v>0.04682762920856476</v>
       </c>
     </row>
     <row r="33">
@@ -955,11 +955,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>kejar</t>
+          <t>mobil_listrik</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.01166420895606279</v>
+        <v>0.03497357666492462</v>
       </c>
     </row>
     <row r="34">
@@ -971,11 +971,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>capai_persen</t>
+          <t>panel_surya</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.009839136153459549</v>
+        <v>0.03107401356101036</v>
       </c>
     </row>
     <row r="35">
@@ -987,11 +987,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>atur</t>
+          <t>sistem</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.008736615069210529</v>
+        <v>0.02514621242880821</v>
       </c>
     </row>
     <row r="36">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pres</t>
+          <t>tinggi</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.008613456040620804</v>
+        <v>0.02031010016798973</v>
       </c>
     </row>
     <row r="37">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>beli_listrik</t>
+          <t>pertamina</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.02240818738937378</v>
+        <v>0.02484430186450481</v>
       </c>
     </row>
     <row r="38">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>uu</t>
+          <t>operasi</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.01934592239558697</v>
+        <v>0.01860747113823891</v>
       </c>
     </row>
     <row r="39">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>anak_usaha</t>
+          <t>rp_triliun</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.01419839821755886</v>
+        <v>0.01342603657394648</v>
       </c>
     </row>
     <row r="40">
@@ -1067,11 +1067,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>apresiasi</t>
+          <t>rp</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01397503726184368</v>
+        <v>0.01313633099198341</v>
       </c>
     </row>
     <row r="41">
@@ -1083,11 +1083,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pilih</t>
+          <t>bangun_infrastruktur</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01322920713573694</v>
+        <v>0.01200048066675663</v>
       </c>
     </row>
     <row r="42">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pln_id</t>
+          <t>transisi</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.05413960665464401</v>
+        <v>0.03399461880326271</v>
       </c>
     </row>
     <row r="43">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pln</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.03621654212474823</v>
+        <v>0.02857460267841816</v>
       </c>
     </row>
     <row r="44">
@@ -1131,11 +1131,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>bangkit_listrik</t>
+          <t>net_zero</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.03498699516057968</v>
+        <v>0.01503552217036486</v>
       </c>
     </row>
     <row r="45">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>bangkit</t>
+          <t>indonesia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.02429471537470818</v>
+        <v>0.01187713537365198</v>
       </c>
     </row>
     <row r="46">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>capai_target</t>
+          <t>tambah</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.02417149022221565</v>
+        <v>0.009770342148840427</v>
       </c>
     </row>
   </sheetData>

--- a/data/lda_model.xlsx
+++ b/data/lda_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pln_id</t>
+          <t>bangkit_listrik</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.06720442324876785</v>
+        <v>0.03018860705196857</v>
       </c>
     </row>
     <row r="3">
@@ -475,11 +475,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bangkit_listrik</t>
+          <t>capai_target</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.03867369145154953</v>
+        <v>0.020856574177742</v>
       </c>
     </row>
     <row r="4">
@@ -491,11 +491,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pln</t>
+          <t>bangkit</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.03497613593935966</v>
+        <v>0.02017183415591717</v>
       </c>
     </row>
     <row r="5">
@@ -507,11 +507,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>capai_target</t>
+          <t>target</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03001130744814873</v>
+        <v>0.01762001775205135</v>
       </c>
     </row>
     <row r="6">
@@ -523,11 +523,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>panas_bumi</t>
+          <t>baur</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.02335862815380096</v>
+        <v>0.0163711179047823</v>
       </c>
     </row>
     <row r="7">
@@ -539,11 +539,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ekspor</t>
+          <t>target_baur</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.03330247104167938</v>
+        <v>0.05173979699611664</v>
       </c>
     </row>
     <row r="8">
@@ -555,11 +555,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>larang_ekspor</t>
+          <t>menteri_bumn</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.03042511083185673</v>
+        <v>0.04277091845870018</v>
       </c>
     </row>
     <row r="9">
@@ -571,11 +571,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pasok_listrik</t>
+          <t>dana</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.02975761517882347</v>
+        <v>0.01606853865087032</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>simak_bawah</t>
+          <t>negara_maju</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02720128931105137</v>
+        <v>0.01601432636380196</v>
       </c>
     </row>
     <row r="11">
@@ -603,11 +603,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>simak</t>
+          <t>tenaga_biogas</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.02297556959092617</v>
+        <v>0.01457156147807837</v>
       </c>
     </row>
     <row r="12">
@@ -619,11 +619,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>target_baur</t>
+          <t>wujud</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01695883460342884</v>
+        <v>0.01331187505275011</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>kapasitas</t>
+          <t>rencana</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.01474569272249937</v>
+        <v>0.009125269018113613</v>
       </c>
     </row>
     <row r="14">
@@ -651,11 +651,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rencana</t>
+          <t>renewable_energy</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.01076308824121952</v>
+        <v>0.009104300290346146</v>
       </c>
     </row>
     <row r="15">
@@ -667,11 +667,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>renewable_energy</t>
+          <t>capai_persen</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.01074031926691532</v>
+        <v>0.008685161359608173</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sumber_daya</t>
+          <t>milik_potensi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.01025021076202393</v>
+        <v>0.008658795617520809</v>
       </c>
     </row>
     <row r="17">
@@ -699,11 +699,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bumn</t>
+          <t>erick_thohir</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0244758203625679</v>
+        <v>0.02172183804214001</v>
       </c>
     </row>
     <row r="18">
@@ -715,11 +715,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>erick_thohir</t>
+          <t>kembang</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.02296965010464191</v>
+        <v>0.01199989952147007</v>
       </c>
     </row>
     <row r="19">
@@ -731,11 +731,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ruu</t>
+          <t>erick</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.02008120343089104</v>
+        <v>0.01120334304869175</v>
       </c>
     </row>
     <row r="20">
@@ -747,11 +747,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>komitmen</t>
+          <t>thohir</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.01679520308971405</v>
+        <v>0.009696365334093571</v>
       </c>
     </row>
     <row r="21">
@@ -763,11 +763,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kurang_emisi</t>
+          <t>investor</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0154570434242487</v>
+        <v>0.009218835271894932</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.04361473023891449</v>
+        <v>0.03330111131072044</v>
       </c>
     </row>
     <row r="23">
@@ -795,11 +795,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>esdm</t>
+          <t>menteri</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.01527505088597536</v>
+        <v>0.0112083712592721</v>
       </c>
     </row>
     <row r="24">
@@ -811,11 +811,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>menteri</t>
+          <t>esdm</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.01485659647732973</v>
+        <v>0.01095485780388117</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01356910262256861</v>
+        <v>0.01042664051055908</v>
       </c>
     </row>
     <row r="26">
@@ -843,11 +843,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>tenaga_surya</t>
+          <t>tinggi_indonesia</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01296452898532152</v>
+        <v>0.009482632391154766</v>
       </c>
     </row>
     <row r="27">
@@ -859,11 +859,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ramah_lingkung</t>
+          <t>pln_id</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.02493078261613846</v>
+        <v>0.04594668745994568</v>
       </c>
     </row>
     <row r="28">
@@ -875,11 +875,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>baur</t>
+          <t>pln</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.01721481420099735</v>
+        <v>0.02347860299050808</v>
       </c>
     </row>
     <row r="29">
@@ -891,11 +891,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kejar_target</t>
+          <t>ramah_lingkung</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01654466427862644</v>
+        <v>0.01830839924514294</v>
       </c>
     </row>
     <row r="30">
@@ -907,11 +907,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>plta_poso</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.01482758205384016</v>
+        <v>0.01765720173716545</v>
       </c>
     </row>
     <row r="31">
@@ -923,11 +923,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>plta</t>
+          <t>transisi</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.01320813223719597</v>
+        <v>0.01555295661091805</v>
       </c>
     </row>
     <row r="32">
@@ -939,11 +939,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tinggi_indonesia</t>
+          <t>plts_atap</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.04682762920856476</v>
+        <v>0.01491238083690405</v>
       </c>
     </row>
     <row r="33">
@@ -955,11 +955,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>mobil_listrik</t>
+          <t>tenaga_surya</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.03497357666492462</v>
+        <v>0.01181791350245476</v>
       </c>
     </row>
     <row r="34">
@@ -971,11 +971,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>panel_surya</t>
+          <t>operasi</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.03107401356101036</v>
+        <v>0.01118618715554476</v>
       </c>
     </row>
     <row r="35">
@@ -987,11 +987,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sistem</t>
+          <t>larang_ekspor</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.02514621242880821</v>
+        <v>0.01115337666124105</v>
       </c>
     </row>
     <row r="36">
@@ -1003,171 +1003,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tinggi</t>
+          <t>tambah</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.02031010016798973</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>pertamina</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.02484430186450481</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>operasi</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.01860747113823891</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>rp_triliun</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.01342603657394648</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>7</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>rp</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.01313633099198341</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>7</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>bangun_infrastruktur</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.01200048066675663</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>8</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>transisi</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.03399461880326271</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>8</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0.02857460267841816</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>net_zero</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0.01503552217036486</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>8</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>indonesia</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.01187713537365198</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>8</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>tambah</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0.009770342148840427</v>
+        <v>0.01031681057065725</v>
       </c>
     </row>
   </sheetData>
